--- a/TestExcel/TestExcel/bin/Release/Book1.xlsx
+++ b/TestExcel/TestExcel/bin/Release/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R853a09da726c4c94"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rb0c95d4d9b94403e"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -18,7 +18,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{6e90a6ef-aabc-4417-ae57-bf7429ea3f97}">
+<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{dd04b42c-93b5-4fd3-8bb5-d94fc30b165f}">
   <we:reference id="09c24f85-8046-4c4d-b7e7-98af5b878e61" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>
